--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H2">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I2">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J2">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>192.9907151976056</v>
+        <v>182.072288600552</v>
       </c>
       <c r="R2">
-        <v>1736.91643677845</v>
+        <v>1638.650597404968</v>
       </c>
       <c r="S2">
-        <v>0.003493923111457085</v>
+        <v>0.003746135337668664</v>
       </c>
       <c r="T2">
-        <v>0.003603220398612234</v>
+        <v>0.00377941295322048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H3">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I3">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J3">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>0.8770943926833333</v>
+        <v>1.120047044613</v>
       </c>
       <c r="R3">
-        <v>7.89384953415</v>
+        <v>10.080423401517</v>
       </c>
       <c r="S3">
-        <v>1.587900416031898E-05</v>
+        <v>2.304495563782016E-05</v>
       </c>
       <c r="T3">
-        <v>1.637573291538435E-05</v>
+        <v>2.3249668256292E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H4">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I4">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J4">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>41.90533047303334</v>
+        <v>64.467448464706</v>
       </c>
       <c r="R4">
-        <v>377.1479742573001</v>
+        <v>580.2070361823539</v>
       </c>
       <c r="S4">
-        <v>0.0007586582726690396</v>
+        <v>0.001326417043907232</v>
       </c>
       <c r="T4">
-        <v>0.000782390704218158</v>
+        <v>0.001338199852714132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H5">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I5">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J5">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>8.29635453685</v>
+        <v>2.922125567634</v>
       </c>
       <c r="R5">
-        <v>49.7781272211</v>
+        <v>17.532753405804</v>
       </c>
       <c r="S5">
-        <v>0.0001501980280629671</v>
+        <v>6.012270145093153E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001032643595338724</v>
+        <v>4.043785504515341E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H6">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I6">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J6">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>40.41902954315556</v>
+        <v>83.788184073328</v>
       </c>
       <c r="R6">
-        <v>363.7712658884</v>
+        <v>754.093656659952</v>
       </c>
       <c r="S6">
-        <v>0.0007317501327403236</v>
+        <v>0.001723940966792621</v>
       </c>
       <c r="T6">
-        <v>0.0007546408208959037</v>
+        <v>0.001739255054393806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J7">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>34917.79994346971</v>
+        <v>25796.71336816677</v>
       </c>
       <c r="R7">
-        <v>314260.1994912274</v>
+        <v>232170.420313501</v>
       </c>
       <c r="S7">
-        <v>0.6321553246683723</v>
+        <v>0.530767094141454</v>
       </c>
       <c r="T7">
-        <v>0.6519304770809626</v>
+        <v>0.5354819967582363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J8">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>158.692642306119</v>
@@ -948,10 +948,10 @@
         <v>1428.233780755071</v>
       </c>
       <c r="S8">
-        <v>0.002872987387003686</v>
+        <v>0.003265099372014832</v>
       </c>
       <c r="T8">
-        <v>0.00296286049451449</v>
+        <v>0.003294103855795177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J9">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>7581.929236979778</v>
+        <v>9134.000030447478</v>
       </c>
       <c r="R9">
-        <v>68237.36313281799</v>
+        <v>82206.0002740273</v>
       </c>
       <c r="S9">
-        <v>0.1372640013453066</v>
+        <v>0.187931950278249</v>
       </c>
       <c r="T9">
-        <v>0.1415579089364346</v>
+        <v>0.1896013846759808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>177.042969</v>
       </c>
       <c r="H10">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I10">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J10">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>1501.058989709469</v>
+        <v>414.018169779942</v>
       </c>
       <c r="R10">
-        <v>9006.353938256812</v>
+        <v>2484.109018679652</v>
       </c>
       <c r="S10">
-        <v>0.0271753213124079</v>
+        <v>0.008518419294724256</v>
       </c>
       <c r="T10">
-        <v>0.01868361513558981</v>
+        <v>0.005729393329656519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>177.042969</v>
       </c>
       <c r="H11">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I11">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J11">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>7313.012887962023</v>
+        <v>11871.43735486766</v>
       </c>
       <c r="R11">
-        <v>65817.1159916582</v>
+        <v>106842.936193809</v>
       </c>
       <c r="S11">
-        <v>0.1323955130041978</v>
+        <v>0.2442546931540835</v>
       </c>
       <c r="T11">
-        <v>0.1365371240074344</v>
+        <v>0.2464244529312535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H12">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I12">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J12">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>11.99585659585478</v>
+        <v>10.272031205688</v>
       </c>
       <c r="R12">
-        <v>107.962709362693</v>
+        <v>92.448280851192</v>
       </c>
       <c r="S12">
-        <v>0.0002171741814577302</v>
+        <v>0.0002113469292061527</v>
       </c>
       <c r="T12">
-        <v>0.0002239678480944214</v>
+        <v>0.0002132243632079248</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H13">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I13">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J13">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>0.05451815930566668</v>
+        <v>0.06319005644699999</v>
       </c>
       <c r="R13">
-        <v>0.490663433751</v>
+        <v>0.5687105080229999</v>
       </c>
       <c r="S13">
-        <v>9.870021808931627E-07</v>
+        <v>1.300134717176651E-06</v>
       </c>
       <c r="T13">
-        <v>1.017877691700511E-06</v>
+        <v>1.31168405519675E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H14">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I14">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J14">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>2.604738442684667</v>
+        <v>3.637080895013999</v>
       </c>
       <c r="R14">
-        <v>23.442645984162</v>
+        <v>32.73372805512599</v>
       </c>
       <c r="S14">
-        <v>4.715644395057201E-05</v>
+        <v>7.48328994571127E-05</v>
       </c>
       <c r="T14">
-        <v>4.863159701813107E-05</v>
+        <v>7.549765399326656E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H15">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I15">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J15">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>0.515682213989</v>
+        <v>0.164858503446</v>
       </c>
       <c r="R15">
-        <v>3.094093283934</v>
+        <v>0.9891510206759999</v>
       </c>
       <c r="S15">
-        <v>9.335962114958157E-06</v>
+        <v>3.391961897228327E-06</v>
       </c>
       <c r="T15">
-        <v>6.418673805953602E-06</v>
+        <v>2.281395549578676E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H16">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I16">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J16">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>2.512353413721778</v>
+        <v>4.727105086031999</v>
       </c>
       <c r="R16">
-        <v>22.611180723496</v>
+        <v>42.543945774288</v>
       </c>
       <c r="S16">
-        <v>4.548389619346584E-05</v>
+        <v>9.726013521205366E-05</v>
       </c>
       <c r="T16">
-        <v>4.690672843808243E-05</v>
+        <v>9.812411504630028E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H17">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I17">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J17">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>2339.848311783806</v>
+        <v>469.1597295415986</v>
       </c>
       <c r="R17">
-        <v>14039.08987070284</v>
+        <v>2814.958377249592</v>
       </c>
       <c r="S17">
-        <v>0.04236084666287983</v>
+        <v>0.009652956281022586</v>
       </c>
       <c r="T17">
-        <v>0.02912398888566639</v>
+        <v>0.006492470188948015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H18">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I18">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J18">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>10.6340236725575</v>
+        <v>2.8861117337705</v>
       </c>
       <c r="R18">
-        <v>63.804142035345</v>
+        <v>17.316670402623</v>
       </c>
       <c r="S18">
-        <v>0.0001925194227053228</v>
+        <v>5.93817172148462E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001323612243108918</v>
+        <v>3.99394773540908E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H19">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I19">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J19">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>508.066497715565</v>
+        <v>166.1182540100543</v>
       </c>
       <c r="R19">
-        <v>3048.39898629339</v>
+        <v>996.7095240603259</v>
       </c>
       <c r="S19">
-        <v>0.00919808642974289</v>
+        <v>0.003417881251243837</v>
       </c>
       <c r="T19">
-        <v>0.00632388132090793</v>
+        <v>0.002298828616544216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H20">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I20">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J20">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>100.5862439399325</v>
+        <v>7.529666658969</v>
       </c>
       <c r="R20">
-        <v>402.3449757597299</v>
+        <v>30.118666635876</v>
       </c>
       <c r="S20">
-        <v>0.001821023369111544</v>
+        <v>0.0001549228087856518</v>
       </c>
       <c r="T20">
-        <v>0.0008346616988814431</v>
+        <v>6.946622971219511E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H21">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I21">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J21">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>490.0463628193533</v>
+        <v>215.9034858119813</v>
       </c>
       <c r="R21">
-        <v>2940.27817691612</v>
+        <v>1295.420914871888</v>
       </c>
       <c r="S21">
-        <v>0.008871848114490356</v>
+        <v>0.004442211848616573</v>
       </c>
       <c r="T21">
-        <v>0.006099585495493769</v>
+        <v>0.002987781894012628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H22">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I22">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J22">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N22">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O22">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P22">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q22">
-        <v>8.317886347782</v>
+        <v>7.082029089482666</v>
       </c>
       <c r="R22">
-        <v>74.86097713003799</v>
+        <v>63.738261805344</v>
       </c>
       <c r="S22">
-        <v>0.0001505878421106005</v>
+        <v>0.0001457126707113188</v>
       </c>
       <c r="T22">
-        <v>0.0001552985475543653</v>
+        <v>0.0001470070634120314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H23">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I23">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J23">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P23">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q23">
-        <v>0.037802707074</v>
+        <v>0.043566244004</v>
       </c>
       <c r="R23">
-        <v>0.340224363666</v>
+        <v>0.392096196036</v>
       </c>
       <c r="S23">
-        <v>6.843839704218554E-07</v>
+        <v>8.963749917536059E-07</v>
       </c>
       <c r="T23">
-        <v>7.057929450768198E-07</v>
+        <v>9.043376571880059E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H24">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I24">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J24">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N24">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O24">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P24">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q24">
-        <v>1.806116816988</v>
+        <v>2.507577341181333</v>
       </c>
       <c r="R24">
-        <v>16.255051352892</v>
+        <v>22.568196070632</v>
       </c>
       <c r="S24">
-        <v>3.269811857220358E-05</v>
+        <v>5.159337624598927E-05</v>
       </c>
       <c r="T24">
-        <v>3.372098471464965E-05</v>
+        <v>5.205168978380255E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H25">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I25">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J25">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N25">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O25">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P25">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q25">
-        <v>0.357572301174</v>
+        <v>0.113661328872</v>
       </c>
       <c r="R25">
-        <v>2.145433807044</v>
+        <v>0.681967973232</v>
       </c>
       <c r="S25">
-        <v>6.473524520646121E-06</v>
+        <v>2.338580592832115E-06</v>
       </c>
       <c r="T25">
-        <v>4.450686684588784E-06</v>
+        <v>1.572903092212747E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H26">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I26">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J26">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N26">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O26">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P26">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q26">
-        <v>1.742057350704</v>
+        <v>3.259092097557334</v>
       </c>
       <c r="R26">
-        <v>15.678516156336</v>
+        <v>29.331828878016</v>
       </c>
       <c r="S26">
-        <v>3.153837962036798E-05</v>
+        <v>6.705578410211294E-05</v>
       </c>
       <c r="T26">
-        <v>3.252496668133451E-05</v>
+        <v>6.765145307900165E-05</v>
       </c>
     </row>
   </sheetData>
